--- a/data/hotels_by_city/Dallas/Dallas_shard_377.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_377.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="538">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>krysheila99</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I see this hotel on a business trip. I was really really impressed with the front desk clerk went on and Beyond to make sure that I was comfortable give me directions for the best place to eat give me directions where I can go buy another suitcase do to my hand on my suitcase broke. I slept very comfortable here enjoyed the breakfast so want to go in the jacuzzi but it was just too cold out I would definitely stay here againMore</t>
   </si>
   <si>
+    <t>Kashlet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r541033331-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We reserved a wheelchair accessible king room, when I checking in and doubled check that it was accessible.  It was not so they changed it.  Note this is in conflict with my room reservation stating what I requested.  Then I go to the room it was 2 queen.  Go back down was informed that 2 beds were in my preferences.  Went back could not find that anywhere on my account.  Ok it is late and we are tired so okay 2 beds will have to do.  So I decided a shower sounds relaxing, there was a dead bug on the floor but dead is best.  Start my shower and was joined by a very alive roach.  Not as relaxing as I hoped for. More</t>
   </si>
   <si>
+    <t>sschaefer2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r539817073-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>This hotel is aging, I believe about 12 years old, and in need of remodel and upgrades, but my stay was pleasant and comfortable.  Staff was friendly, and the rooms were clean and comfortable.  Good location for access to Texas Motor Speedway.  Plenty of dining and shopping within a few miles.  Easy on and off of IH820.  All of the amenities you’d expect from a very decent budget hotel.  I’d stay again.More</t>
   </si>
   <si>
+    <t>LaShavio  L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r537768104-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Nuvia Reyes is awesome. She greeted me from the start and assisted me with all my questions. Because of the customer service I received and the amenities offered, I plan on staying here more for business and personal. Thanks for making a customer feel appreciated!</t>
   </si>
   <si>
+    <t>NQ8286</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r533642254-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>Stayed here in Feb 2017 during a business trip. Hotel is a little too tired and my check-in took some time. Dispensing machines are there on each floor but the one on my floor was not working. Very small gym, if there are more than two people at the same time it feels stuffed. Rooms are fine. There is a Danny's and gas station just next to it which is handy. Breakfast was good.More</t>
   </si>
   <si>
+    <t>Stagalv_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r524044295-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>My son and I stayed here on a leisure trip recently for a sporting event.  While it's not my favorite HIEX, it's decent, clean and has a pool.  Breakfast was typical which is a good way to get your day started.  Room was good.  If I had to dig up a complaint it would be that the air conditioner is a bit loud when it kicks on.  I would stay here again for the right rate.More</t>
   </si>
   <si>
+    <t>geyten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r507716312-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -325,6 +346,9 @@
   </si>
   <si>
     <t>August 1, 2017</t>
+  </si>
+  <si>
+    <t>Michaela H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r486845240-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
@@ -362,6 +386,9 @@
 When the key was brought, we were told we had to move ourselves as there was only the one employee in the hotel and he had to stay...This was the latest of several stays for us, as we visit Fort Worth regularly.  The staff are pleasant, the breakfast adequate with lots of choices, and the rooms are large and clean.While there is plenty of parking, DO NOT park under a tree or even close.  There is an enormous population of grackles that roost in the trees at night and, you guessed it, your vehicle will need a major detailing the next morning!Some of the rooms have through-the-wall heat/cool units and these work well, except for the usual noise.  Other rooms have the HVAC built in and controlled by wall thermostats, which is what our initial room had.  This unit, too, was very noisy, lots of thumping and racket, but it cooled okay.  Until it didn't.....we walked in after going out to dinner and the room stunk to high heaven with a thin layer of haze in the air.  Evidently, the HVAC had overheated internally, frying belts and wiring and filling the room with thick fumes.  The desk clerk, a very young guy, came up and said "Yep, we've had this happen before....we'll move you to another room."  We packed up in a hurry, coughing and choking (the windows don't open, of course), and waited for a key.When the key was brought, we were told we had to move ourselves as there was only the one employee in the hotel and he had to stay at the desk.  Which we did, worried that the HVAC was in danger of catching fire and frying us in our beds down the hall.This wasn't a major disaster, just a major pain you know where.  However, the hotel didn't offer so much as an apology for the inconvenience.  Additionally, we wonder how a good size hotel with lots of guests only has one person, and an inexperienced one at that, to hold down the fort at night.  Needless to say,  this place is off our list.More</t>
   </si>
   <si>
+    <t>Donnie3217</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r471986290-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -389,6 +416,9 @@
     <t>Overall a good hotel but with that said it's still a little bit of a mixed bag let's start off with the good stuff you couldn't ask for better staff I have not dealt with one person so far that has not been extremely friendly they all seem to enjoy their job everybody walks around with a big smile I really can appreciate that as someone who travels a lot it's not that way at all hotels for me it's in a good location right off the highway plenty of restaurants nearby shopping as far as my room goes it's quite large I've got a completely separate living room area. The room is in good condition Furniture looks decent everything's clean got your standard bathroom I've got a microwave and little refrigerator and a sink I couldn't ask for much more but like I said this is a little bit of a mixed bag there are a couple negatives first of all something that's very frustrating the Wi-Fi does not work well at all I'll be honest I'm even having a difficult just sending a basic email that alone is extremely frustrating to me the other thing that's a little frustrating is that the pool and hot tub seem to be out of order they are green right now not quite sure what's going on there but does not look good and it would have been nice for a heads...Overall a good hotel but with that said it's still a little bit of a mixed bag let's start off with the good stuff you couldn't ask for better staff I have not dealt with one person so far that has not been extremely friendly they all seem to enjoy their job everybody walks around with a big smile I really can appreciate that as someone who travels a lot it's not that way at all hotels for me it's in a good location right off the highway plenty of restaurants nearby shopping as far as my room goes it's quite large I've got a completely separate living room area. The room is in good condition Furniture looks decent everything's clean got your standard bathroom I've got a microwave and little refrigerator and a sink I couldn't ask for much more but like I said this is a little bit of a mixed bag there are a couple negatives first of all something that's very frustrating the Wi-Fi does not work well at all I'll be honest I'm even having a difficult just sending a basic email that alone is extremely frustrating to me the other thing that's a little frustrating is that the pool and hot tub seem to be out of order they are green right now not quite sure what's going on there but does not look good and it would have been nice for a heads up because on their website they say that they have a pool but clearly having it and having one that you can swim in are two different things the only other thing and this is more about personal taste but the rooms are a little dated although the furniture is in good condition everything looks kind of old it definitely could use a makeover this is the second out of a 4 night stay and overall I'm pretty pleased with the hotel I would recommend it if you're in the areaMore</t>
   </si>
   <si>
+    <t>Evangelist O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r470381171-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -408,6 +438,9 @@
   </si>
   <si>
     <t>This is clean spot to crash with wonderful breakfast. The noise level was low. The beds were nice and attentive staff. You may want to reserve your room ahead of time to cut down on confusion. I would suggest you call ahead and check for your reservation to be on the safe side. Staff are friendly but a little unorganized.More</t>
+  </si>
+  <si>
+    <t>DonotCompromise</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r463042841-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
@@ -436,6 +469,9 @@
 On the bright side--Mariah was behind the service counter and was excellent at assisting!  She took care of the cleaning crew issues, gave me directions to my destination without going through the insane highway construction occurring almost everywhere between Dallas and Fort Worth, and was just very pleasant all-around.  The other nice part was the food and drink from 5:00-7:00PM.  One day it was burgers, one day fajita's and one day fried chicken.  They also offered (not expensive) red and white wine, but they ran out of red wine Wednesday evening and didn't plan on restocking until the follow week, which I thought was pretty lame.  I did not catch the gal's name who works that area for those two hours each evening--but she is very personable, helpful and...I had not been in this area before and had a three night business trip, so I settled with a known name.  The hotel is right off a major highway that is undergoing significant construction.  The lobby and common areas have been updated but the room I was in was quite basic (they also do not get Bravo TV).  The single fabric chair and ottoman where very old and the chair itself sank when sitting in it.  The cleaning crew didn't leave me a blanket for my bed and they missed giving me coffee for the coffee maker one morning; I am not a happy person in the mornings without coffee.On the bright side--Mariah was behind the service counter and was excellent at assisting!  She took care of the cleaning crew issues, gave me directions to my destination without going through the insane highway construction occurring almost everywhere between Dallas and Fort Worth, and was just very pleasant all-around.  The other nice part was the food and drink from 5:00-7:00PM.  One day it was burgers, one day fajita's and one day fried chicken.  They also offered (not expensive) red and white wine, but they ran out of red wine Wednesday evening and didn't plan on restocking until the follow week, which I thought was pretty lame.  I did not catch the gal's name who works that area for those two hours each evening--but she is very personable, helpful and pleasant.Overall it was an OK stay only because of the service staff.  Until the construction completes in four years I won't be back to that specific location...More</t>
   </si>
   <si>
+    <t>braggs2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r455002328-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -460,6 +496,9 @@
     <t>Hotel was overbooked.  Didn't get our reserved room as promised.  Bedding was not provided first night for hideabed.  Second night, bedding was provided but no blanket was provided, just sheets.  Third night, no clean towels were provided.More</t>
   </si>
   <si>
+    <t>jette1155</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r452805983-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -478,6 +517,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>C and K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r444880456-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -502,6 +544,9 @@
     <t>The staff and common areas are all nice - the lady running the breakfast was a pleasure.But the room was average at best.  I liked the microwave and mini-fridge in the room but I ran out of hot water twice in 4 days and there were stains on the upholstered chair as others have noted and photographed.  There's no excuse for that - easy to notice and clean up.  I had another week reserved that I cancelled and will go elsewhere.More</t>
   </si>
   <si>
+    <t>Lipstickandlead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r440922581-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -529,6 +574,9 @@
     <t>We were in Fort Worth for an impromtu vacation. April and especially Debbie made our stay perfect! It's hard on a mother traveling with all of her children, these ladies made our stay so enjoyable taking care of every request with a smile going above and beyond. More</t>
   </si>
   <si>
+    <t>Paul B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r438508784-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -553,6 +601,9 @@
     <t>Hotel is a little tired. It's clean but very basic. The breakfast was only ok. The check in process was good and the location is good just off of the highway. As always good sized beds, good shower but everything in need of freshening up. More</t>
   </si>
   <si>
+    <t>Schaepman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r435062341-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -577,6 +628,9 @@
     <t>I liked the hotel and the nice parking space close by. There's a very nice restaurant across the parking lot. The room was large and well equipped. In the morning, I tried a pancake from a pancake machine - a very special invention which I never saw before. Also I liked that I could take a cup of coffee on my journey. More</t>
   </si>
   <si>
+    <t>Lakegirpaints</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r427582492-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -604,6 +658,9 @@
     <t>We have stayed at Holiday Inn Express and Suites many times in the past, but it has been awhile. We were surprised at how uncomfortable the bed was. The decor was very outdated. Neither of us slept well and then we were awaken at 6 am by the fire alarm and we had to evacuate. Of course, this is not the hotels fault and I am not basing my rating on that. We ended up skipping the free breakfast due to fire alarm and went to Denny's next door. My husband did grab a cinnamon roll once we were allowed back in. He said it was dry and only took one bite before throwing it away. Due to the restless night we both had, we will not be staying at this location again in the future.More</t>
   </si>
   <si>
+    <t>nitzie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r427442213-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -622,6 +679,9 @@
     <t>My sister and I just spent 5 days at this property.  We picked it because it was one of the few in the area with an outdoor pool and we weren't disappointed.  From the minute we walked in until the day we left we couldn't find anything to complain about.  I travel a lot and this doesn't happen often.  The staff was friendly yet professional.  I was pleasantly surprised that on most weekdays from 6-7 PM they offer complimentary light snacks and beer in their Hospitality area. The room was clean, comfortable and well lit, which is important to me because I'm not as young as I once was.  It wasn't noisy either which can sometimes be a problem.  I'd like to give special recognition to Mary in the Breakfast area.  She kept everything clean and well stocked and managed to say hello to everyone.  On our last day there she made some scrambled eggs that were worlds better than the normal tasteless, plastic looking eggs that most HIE's serve. I wish they'd go back to the good eggs. The next time I'm in this area I will definitely stay at this property.More</t>
   </si>
   <si>
+    <t>Jeff K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r425813929-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -673,6 +733,9 @@
     <t>Although the general manager is friendly and I'll give her credit that she did refund my points used for this stay. That still doesn't take away from the fact that this hotel has some major issues while checking in I was lectured about now even though I was paying with points they needed my credit card just in case I started partying why would you think that and why would you tell your guests something like that the other major issue was housekeeping the rooms are not cleaned properly housekeeping is very noisy they make no attempt to be quiet in the hallway there are maintenance issues like the air condition vent not staying closed and you can see the filter which looks like it hasn't been cleaned in 6 months the location for me was great because it was close to my family but other than that I would have a hard time recommending this hotel they really need to work on things the rooms are very old and run-down in my opinionMore</t>
   </si>
   <si>
+    <t>coolnatkat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r384835139-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -691,6 +754,9 @@
     <t>I would have given this 4 stars but there were bugs in my room. Checked out early.Rooms are big but outdated. There are no sheer curtains, so you have to choose between blackout curtains or nothing(and there are bright lights outside). More</t>
   </si>
   <si>
+    <t>EEKlectic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r376267428-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -712,6 +778,9 @@
     <t>I stayed here three nights for meetings at Tarrant County Community College. I am so glad this hotel was recommended to us. It is close to the NW campus of TCCC, about 5 minutes to stores and food in Lake Worth and about 20 minutes from the Stockyards. From here, you do not have to take the freeway to get to the stockyards. There is a convenience store and a Denny's right next to the hotel, too.The cleaning crew kept my room nice and neat daily. All my appliances worked (iron, fridge, microwave, a/c, tv). The tv had the most popular cable channels. I had a lovely view of the freeway and actually had a dove visit my windowsill a few times, which I thought was heavenly.  I did not have a chance to use the pool or workout areas. The outside was also kept clean. The breakfast is outstanding! The best in a hotel of this type. Hot and cold. I watch what I eat, so this is huge for me. They had a pancake machine (even sugar free syrup), different types of breads, muffins, eggs, turkey sausage (YAY!), cereal, juices, milk, coffee, tea. And the healthier, fruity, no sugar yogurt. I ate really well every morning. And at night, they had beer, finger food, and cookies. If I go back to Lake Worth, I am staying at this hotel from now on.More</t>
   </si>
   <si>
+    <t>GemOnTheRoad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r373911969-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -727,6 +796,9 @@
     <t>As expected the hotel provided a pleasant stay. Conveniently located. Ample accommodations, friendly staff, excellent breakfast that started earlier than scheduled, which was perfect for our group since we had to leave early. Had some perks that I never had at other HIEs such as Salisbury steak dinner on Thursday night. That was fun. The washing machine on our floor did go out of commission in the middle of the weekend and wasn't fixed before we left but not a huge deal. Would definitely consider staying at this location again next time we're in the area. Thanks for great service!</t>
   </si>
   <si>
+    <t>Susan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r373859164-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -742,6 +814,9 @@
     <t>The hotel has an amazing staff - very friendly and helpful!  When the pool was out of order, the front desk clerk (sorry I do not remember your name) gave me free passes to an event on Saturday that would be great for my 6 year old grandson.  And while checking out, she asked how we enjoyed the event,  Sadly, I had to tell her that my grandson did not arrive in time to enjoy the event but it was very gracious of her to give the tickets to me and then to ask about it.  The food was great and I especially liked the Thursday night manager's reception with food &amp; drink.  This hotel is also close to major restaurants and shopping,  Highly recommend!More</t>
   </si>
   <si>
+    <t>1Janexxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r365520699-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -769,6 +844,9 @@
     <t>Hotel room was well appointed and clean. The location is less than desirable especially if you don't have transportation. The morning manager Jennifer was very friendly and told us the hotel shuttle was able to take us within a 3 mile radius which is standard for hotels that have a shuttle service. Thanks Jennifer!Nevertheless, when Jennifer left the staff did not honor this shuttle service. Andrea was rude and unapologetic. We were under the impression she was a night manager since she seemed to be calling the shots but later found she was not a supervisor or manager just a rude employee!This is a pet friendly hotel and although I like animals I would prefer a hotel that does not accept animals. Just an FYI for those who feel the same.More</t>
   </si>
   <si>
+    <t>TFW21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r363114955-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -784,6 +862,9 @@
     <t>I stayed here twice last week. Always friendly when I arrive. Always get a nice clean room and an upgrade if available.Staff is pleasant and always welcoming, they have a free breakfast and free internet for IHG members.What more can I ask...</t>
   </si>
   <si>
+    <t>susu71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r347924106-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -802,6 +883,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>shazk71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r339760380-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -818,6 +902,9 @@
   </si>
   <si>
     <t>This was a nice hotel to stay at for one night. Bella on the front desk was great at check in and the hotel is surrounded by restaurants and shopping. Rooms were very clean and breakfast area large and clean with the average choice of foods. There was a little freeway noise.The one problem that I had at this hotel was that at 9:30 am on a Saturday morning the maid walked right into our room without the courtesy of knocking. I have never stayed in a hotel where the maid walks into a room without knocking or calling out 'Maid Service'. I was very disturbed by this and will always use the safety latch on the door from now on. She also knew we had not left the hotel as we passed her in the hall going for breakfast.I would stay at this hotel again and recommend it to other travelers. I would however make more of an effort with security by using the lock on the door.More</t>
+  </si>
+  <si>
+    <t>GW B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r335576204-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
@@ -847,6 +934,9 @@
 I still very much liked the facility and would stay again despite the "warm...Stayed at this hotel for 4 days during a family visit.  The hotel is easy to find and to get to.  Retail shopping and dining is in close driving distance. The hotel is very nicely appointed.  Our room was a king bed room and was spacious and comfortable and included a microwave, refrigerator and coffee maker.  The bed was very comfortable.  A breakfast is provided with a good variety of items and is served in an area resembling a great room.  All staff encountered were friendly and helpful.  After we checked in, we received a call from the front desk to be sure the room met our needs.The only criticism is that the water faucet on the cold side ran with warm water most of the time.  Thinking it was a fluke of some kind after the first day, I reported it to the desk on the second day.  They said that maintenance would check it.  Later, it ran cool as expected most of the time but occasionally again on the warm side with no explanation.  I even turned off the hot water supply line to see if it made a difference and it didn't.A fitness room is in the hotel, and a pool.  But if you want more than a treadmill run or bike, make other plans for a workout as I did.  I still very much liked the facility and would stay again despite the "warm water" problem this time around.More</t>
   </si>
   <si>
+    <t>Erin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r319953067-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -865,6 +955,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Navlinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r318698204-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -880,6 +973,9 @@
     <t>The hotel was what you would expect as far as the facility goes but the staff was very cordial. Snacks (goldfish, pretzels, cookies) available in lobby which was a nice touch. They also put out some food from 5:00 to 7:00 - looked like burgers but we went elsewhere to eat so I can not say much about that. Room was fine but bathroom is awkward. There is no soap dish or rail or shelf in the shower area. Everything has to go on the tub edge. Also shower curtain was too high and you have to be careful not to flood the floor.</t>
   </si>
   <si>
+    <t>NJTTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r316878140-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -898,6 +994,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Jeremy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r308789708-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1018,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Darleen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r301566984-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1036,9 @@
     <t>This was clean and comfortable hotel.  It was right off I820, and was just the right place for us to stay while visiting our grandson.  This was our second visit to this hotel and both times, we had nice quiet rooms.  Each one was clean and the bedding was great. Very friendly staff! They offer a quick breakfast, but if you prefer you can walk right next door to a Denny's.</t>
   </si>
   <si>
+    <t>DRip2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r233863690-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1057,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Pineaway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r226944569-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1087,9 @@
     <t>Finding the entrance to this hotel was a frustrating adventure.  The directions have you turning down the service road that leads to the highway but the area was under construction and I missed the unlit entrance twice causing me to enter the highway and having to go round and round.  Once I finally found the hotel, there was a perfectly easy way to get into the hotel from the back side and that is what they should be telling everyone as long as the construction is going on.  Anyway, once there, the hotel staff was friendly and pleasant.  The room was clean and comfortable, free Wi-Fi and breakfast makes for a pleasant stay.More</t>
   </si>
   <si>
+    <t>Junevisits</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r223952868-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1114,9 @@
     <t>We stayed here several nights and enjoyed everything. The breakfasts were hot and fresh.  The evening meals were very good. The desk staff (especially Jenny) were all helpful and courteous. There was plenty of parking space. I saw several people taking advantage of the Fitness Center. More</t>
   </si>
   <si>
+    <t>Jim D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r221081507-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1142,9 @@
   </si>
   <si>
     <t>I was here for business for the week.  Overall it is your typical Holiday Inn Express - clean, nice check in, pleasant employees.  This is a very good deal in that you get your usual breakfast (breads, yogurts, eggs, etc) - which are mostly frozen items reheated, so nothing fancy, but included in price.  In addition, they do a manager reception in the evenings from 6-7 with food and drink (something like hot dogs and chips, or BBQ sandwiches) and tea, soda and beer.  So if this works for your dinner, then you could have your room, breakfast and dinner for around $100 - $120 bucks.  And really, if you were a family of 4 traveling, that is a great bargain with the food included.  They have a small work out center and an outside pool.  The rooms were clean and the bathrooms not bad.  I stayed in a room facing the back, which I could hear trucks on the highway that this hotel is just off.  Possibly if you stayed further away from the highway you wouldn't hear it.It is very easy to get to off the highway, and next door is a Denny's and a gas station/store.  Plus you are only a 1/2 mile from a lot of shopping plazas and stores, so any need you have is very convenient.More</t>
+  </si>
+  <si>
+    <t>Drema S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r219827591-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
@@ -1088,6 +1205,9 @@
     <t>My girlfriend and I spent the night here on our Tour de Texas.  We were looking for a place close to the Stockyard.  Loved the fresh baked cookies, and snacks that were out in the lobby.  Was also surprised by the evening snack of nachos and beer.  This location was great for what we needed.  Would probably stay here again if we were in the area.More</t>
   </si>
   <si>
+    <t>Korn10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r180078544-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1106,6 +1226,9 @@
     <t>My roommate and I needed a place to stay for a few days for home repair. The great thing about it the location.  Who would have known the staff was very friendly &amp; the room very clean. Love the fact that you can have breakfast. Highly recommend. More</t>
   </si>
   <si>
+    <t>Itrip4trips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r167220313-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1256,9 @@
     <t>Nice hotel stay, rooms were clean and full of all the basic amenities. Good location near down town, staff was very helpful and friendly. They put out fresh baked cookies which I thought was a nice touch, breakfast was also very good. The only problem we had was the pool being closed..More</t>
   </si>
   <si>
+    <t>hrw1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r166067861-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1301,9 @@
     <t>This is an excellent hotel.  The room we had was very large and very comfortable at a reasonable rate.  The staff was very friendly and the breakfast was well done.  Parking was convenient and they are next door to a Denny's if that is your thing.More</t>
   </si>
   <si>
+    <t>vdmadmw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r143641375-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1322,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>DCA2113</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r141282157-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1343,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>reefdive</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r137578983-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1364,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Shannon73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r133853749-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1385,9 @@
     <t>My husband and I had a family function for the weekend in Lake Worth so we decided to try a different route than our normal research.  We tried a Hotwire Secret Deal and got a really great price for a king room, but it's true that you get what you pay for.  Check in was wonderful and the desk clerk was very helpful and nice.  The room is a nice size with a refrigerator and microwave.  As soon as we got into the room we lowered the air conditioning as it had been set on 78.  We left for dinner and to visit with family, when we arrived back to our room a few hours later it was still only about 75 degrees.  We tried to get some sleep but the room seemed stuffy and to top it off around midnight we got some neighbors above us that sounded like they brought a bowling alley with them.  For thirty minutes we laid in bed hoping they would settle down but that never happened.  My husband called down to the front desk to complain but the noise continued for another 30 minutes before he made a second call to the front desk.  He was told that our noisy upstairs neighbors wouldn't answer the door or the phone and there wasn't much else they could do.  From the sound of things someone may have been being hacked to pieces in that room,...My husband and I had a family function for the weekend in Lake Worth so we decided to try a different route than our normal research.  We tried a Hotwire Secret Deal and got a really great price for a king room, but it's true that you get what you pay for.  Check in was wonderful and the desk clerk was very helpful and nice.  The room is a nice size with a refrigerator and microwave.  As soon as we got into the room we lowered the air conditioning as it had been set on 78.  We left for dinner and to visit with family, when we arrived back to our room a few hours later it was still only about 75 degrees.  We tried to get some sleep but the room seemed stuffy and to top it off around midnight we got some neighbors above us that sounded like they brought a bowling alley with them.  For thirty minutes we laid in bed hoping they would settle down but that never happened.  My husband called down to the front desk to complain but the noise continued for another 30 minutes before he made a second call to the front desk.  He was told that our noisy upstairs neighbors wouldn't answer the door or the phone and there wasn't much else they could do.  From the sound of things someone may have been being hacked to pieces in that room, but apparently calling the police if the door isn't answered isn't an option here.We were moved from the second floor to the forth floor above our noisy neighbors.  One of the first things we noticed when the elevator opened was the strong cigarette order and non smoking signs.  At some point this floor had to have had smoking rooms, because the stench attacks you as soon as the elevator doors open.  We were so tired we decided not to complain about this and just get into the room and try to get some sleep.  However the air conditioner in this room wasn't great either.  I don't think the room ever got colder than about 74 degrees.  If your a water pressure person and that's a deal breaker for you, skip this hotel all together.  Very little pressure.Going back to my research on Tripadvisor from now on.  It's not worth a few saved bucks for this kind of bad deal.More</t>
   </si>
   <si>
+    <t>bob r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r129423289-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1415,9 @@
     <t>checked in, asked for single bed,in town for funeral,maybe two daysGot two beds,no a/casked for fan, was told hold on, I will check and call you backGOT NO CALL BACK AT ALL.no acNext day asked to talk with manager,so we could get another room , response ,sure new rate $ 139.00manager out on errandsAGAIN NO CALL BACK, NO APOLOGYALL WE WANTED WAS REST IN A COMFORTABLE , CLEAN ROOMDO YOU THINK WE WILL EVER GET A RESPONSEMore</t>
   </si>
   <si>
+    <t>dutch57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r128519165-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1439,9 @@
     <t>My family and I stayed there for two days and found it to be a very enjoyable place to stay.  The rooms were very clean and large.  Modern furniture and alot of channels to choose from for the little guy.  Bathroom was super clean.  Check in was a breeze and the young lady who checked us in was very nice and friendly, she bent over backwards to help us and make sure our stay was enjoyable. Breakfast was Great with a lot of selections compared to other hotels that I have stayed in.  They had the usual bread, rolls, warm muffins, cereals, juices, milk,pancakes, coffee,yogurt, fruits, hot --biscuit &amp; gravy, eggs, ham, sausage, just to name some of the items available.  The only reason I didn't give it a 5 rating was that it is close to a major highway and the traffic on the highway could be heard.  Not enough to keep you awake but be heard.  The rest of the hotel was very quite and clean.  I would stay here anytime I could.  Good workout room and also a modern pool to splash around in. The staff were all very friendly and helpful. You could not tell that anyone else was in the hotel. We stayed on a weekend so there were several people staying at the hotel.  Very quite place to rest and sleep.More</t>
   </si>
   <si>
+    <t>waddayouthink</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r128272697-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1457,9 @@
     <t>This was very typical of any Holiday Inn Express I've stayed in. Good front desk, well-kept, standard breakfast, comfortable beds. Good for one to three nights on a business trip.</t>
   </si>
   <si>
+    <t>hazbrit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r115856803-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1478,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>buddy1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r115584355-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1496,9 @@
     <t>Called to make reservation Person that answered the phone was rude asked for the manager was on hold for five min hung up and called the Hampton, this would have been my fourth stay will not be back</t>
   </si>
   <si>
+    <t>justllooking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r111652595-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1364,6 +1520,9 @@
     <t>Not really much to say, met expectations for a hotel, good room, nice staff, good location, but stay away from the free dinner and breakfast.  The rooms were nice and clean, the staff was really helpful, parking was nice and close, overall a totally average place.  I can only provide the average rating because the the breakfast and dinner left a boring taste.  After a week stay we ended up eating out all three meals for 4 of the 5 days.  However, if you are looking for a good hotel with no without food considerations, then this is your place... but, it is a little overpriced without the "freebies".  Would I go back...yes, if there was nothing closer to my final destination.  After all that talk about average, I must give an A+ to the staff, they really were nice and pleasant and seemed to enjoy being at work.More</t>
   </si>
   <si>
+    <t>karenwood2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r586718039-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1382,6 +1541,9 @@
     <t>June 2018</t>
   </si>
   <si>
+    <t>GloriaMunday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r567554249-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1571,9 @@
     <t>The Holiday Inn was so fun. We had great rates for 2 days of a cousin’s wedding. The HI arranged to drive us to the Venue-Hollow Hills Event Center. 30 minutes away- in the country. Even tho it was starting to rain they still had. Driver for us. Major Thank you!!We brought in food/ drinks/ more food.  HI Helped us empty our overflowing trash during off hours. Front desk was super awesome and tried to get me an even better rate- and I didn’t ask for it. Thank you~ Samantha. There was a quick breakfast offered. The family pulled tables around and got in more visiting before we scattered to each coast and all over Texas. Check out was noon! A bonus ! 2 fabulous days. Disclaimer:Our gps was sometimes confused on how to find the HI. More</t>
   </si>
   <si>
+    <t>tholland55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r582091298-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1601,9 @@
     <t>While this isn't the most modern Holiday Inn Express I have ever stayed at, it sure goes out of its way to make you feel welcome. The staff genuinely try and make your stay as enjoyable as possible but providing snacks, cookies and cold drinks on arrival. The rooms are large and clean and although the decor is a tad dated, it was great for a night of sound sleeping. The lady at breakfast was delightful and did her best to keep all items topped up and to make sure you were satisfied. A very positive experience and a good demonstration that a good culture in an organisation certainly works.More</t>
   </si>
   <si>
+    <t>newnormal2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r579702734-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1623,9 @@
   </si>
   <si>
     <t>Do yourself a favor and look at the pics I have posted and read the reviews and don’t stay. I mistakenly booked at the wrong Holiday Inn in Ft Worth and not at the one we normally stay at. I thought they are all about the same? No problem. Yes, it was a problem and all Holiday Inns are not the same. I have come to expect a higher level in hotel room at Holiday Inn Express. I am a frequent traveler and this chain has become a favorite. Every single one I have stayed in, I was completely satisfied...until this stay. This place needs someone to revamp it and to keep it clean. The hotel is outdated and is worn.  Furniture was chipped and old. Cracks in tiles throughout lobby and room. Floors and carpets were dirty. I looked down at the elevator floor and even it was dirty.  We walked into the room and it smelled like the inside of a pet kennel, it was nauseating but there were no rooms to change to and it was late and we are tired. We checked in about 8p and had reservations for 2 nights. We heard a dog barking but could not discern where noise was coming from. At 10p when we turned off TV we realized it was in room next to us. The dog was barking incessantly. I called the front desk. They apologized and promised action....Do yourself a favor and look at the pics I have posted and read the reviews and don’t stay. I mistakenly booked at the wrong Holiday Inn in Ft Worth and not at the one we normally stay at. I thought they are all about the same? No problem. Yes, it was a problem and all Holiday Inns are not the same. I have come to expect a higher level in hotel room at Holiday Inn Express. I am a frequent traveler and this chain has become a favorite. Every single one I have stayed in, I was completely satisfied...until this stay. This place needs someone to revamp it and to keep it clean. The hotel is outdated and is worn.  Furniture was chipped and old. Cracks in tiles throughout lobby and room. Floors and carpets were dirty. I looked down at the elevator floor and even it was dirty.  We walked into the room and it smelled like the inside of a pet kennel, it was nauseating but there were no rooms to change to and it was late and we are tired. We checked in about 8p and had reservations for 2 nights. We heard a dog barking but could not discern where noise was coming from. At 10p when we turned off TV we realized it was in room next to us. The dog was barking incessantly. I called the front desk. They apologized and promised action. Dog is still barking 30 mins later. We called again, she called us back and said dog owners had left dog in room and she was trying to reach them. In about another 30 mins, dog stopped barking. The front desk personnel are nice and they were the only part of a miserable stay. When you pull on the lever for shower to come on, the entire spigot comes out of wall. After one night we canceled for the next night and told front desk why. The lady was apologetic and listened to our concerns and said she would let manager know. We booked at a newer Holiday Inn at 1-35 Western Center. When we walked into this Holiday Inn at 1-35 Western Center, what a world of difference. They are renovating a hotel that was already pretty nice. More</t>
+  </si>
+  <si>
+    <t>katiey424</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d570264-r569105919-Holiday_Inn_Express_Suites_Lake_Worth_NW_Loop_820-Fort_Worth_Texas.html</t>
@@ -1983,43 +2154,47 @@
       <c r="A2" t="n">
         <v>53536</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155990</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2031,56 +2206,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53536</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2092,56 +2271,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53536</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155992</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2153,56 +2336,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53536</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155993</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2216,50 +2403,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53536</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155994</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2277,56 +2468,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53536</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>8914</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2342,41 +2537,45 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53536</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155995</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2392,51 +2591,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53536</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>20348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2454,56 +2654,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53536</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>40501</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2521,56 +2725,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53536</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155996</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2586,56 +2794,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53536</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155997</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2647,56 +2859,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53536</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2712,56 +2928,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53536</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2781,50 +3001,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53536</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>156000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2842,56 +3066,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53536</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>156001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2903,56 +3131,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>53536</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>4206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2964,56 +3196,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>53536</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>178</v>
       </c>
-      <c r="L18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>163</v>
-      </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3025,56 +3261,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>53536</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>156003</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3086,56 +3326,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="X19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>53536</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156004</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3153,50 +3397,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>53536</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>39254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3208,56 +3456,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>53536</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>40501</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3269,56 +3521,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>53536</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156005</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3330,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>53536</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>156006</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3399,50 +3659,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>53536</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>156007</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3456,50 +3720,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>53536</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3517,50 +3785,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>53536</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>156008</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3572,56 +3844,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="X27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Y27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>53536</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>156009</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3641,50 +3917,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>53536</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>156010</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3702,50 +3982,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>53536</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>156011</v>
+      </c>
+      <c r="C30" t="s">
+        <v>285</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3765,50 +4049,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>53536</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>292</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3828,50 +4116,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>53536</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>17887</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3885,50 +4177,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>53536</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156013</v>
+      </c>
+      <c r="C33" t="s">
+        <v>307</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3948,50 +4244,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>53536</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156014</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4009,50 +4309,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>53536</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>79039</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4066,50 +4370,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>53536</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>21901</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4129,50 +4437,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>53536</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>156015</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4190,50 +4502,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>53536</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156016</v>
+      </c>
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4251,47 +4567,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>53536</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156017</v>
+      </c>
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4318,56 +4638,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>53536</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>5511</v>
+      </c>
+      <c r="C40" t="s">
+        <v>360</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4385,56 +4709,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>53536</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>47976</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4446,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="X41" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
@@ -4465,37 +4793,37 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4517,47 +4845,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="X42" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>53536</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>389</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4584,56 +4916,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>53536</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156019</v>
+      </c>
+      <c r="C44" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4655,56 +4991,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>53536</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>48414</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="K45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4726,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="X45" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="Y45" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46">
@@ -4745,37 +5085,37 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J46" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4797,56 +5137,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="X46" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="Y46" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>53536</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>156020</v>
+      </c>
+      <c r="C47" t="s">
+        <v>421</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4860,50 +5204,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>53536</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>110201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>428</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4917,50 +5265,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>53536</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156021</v>
+      </c>
+      <c r="C49" t="s">
+        <v>435</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4984,50 +5336,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>53536</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156022</v>
+      </c>
+      <c r="C50" t="s">
+        <v>442</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="J50" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5051,50 +5407,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>53536</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156023</v>
+      </c>
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="J51" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5116,56 +5476,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="X51" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>53536</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156024</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5189,50 +5553,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>53536</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>156025</v>
+      </c>
+      <c r="C53" t="s">
+        <v>467</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5256,50 +5624,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53536</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>30552</v>
+      </c>
+      <c r="C54" t="s">
+        <v>473</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -5319,41 +5691,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>53536</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156026</v>
+      </c>
+      <c r="C55" t="s">
+        <v>480</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -5382,50 +5758,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>53536</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156027</v>
+      </c>
+      <c r="C56" t="s">
+        <v>486</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="J56" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="L56" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5445,50 +5825,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>53536</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>156028</v>
+      </c>
+      <c r="C57" t="s">
+        <v>494</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="J57" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="K57" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="L57" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="O57" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5506,50 +5890,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>53536</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>156029</v>
+      </c>
+      <c r="C58" t="s">
+        <v>501</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="J58" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="L58" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="O58" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5561,56 +5949,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="X58" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="Y58" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>53536</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>156030</v>
+      </c>
+      <c r="C59" t="s">
+        <v>511</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="J59" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="K59" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="L59" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -5626,56 +6018,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="X59" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="Y59" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>53536</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>156031</v>
+      </c>
+      <c r="C60" t="s">
+        <v>521</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="J60" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="K60" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="L60" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5687,56 +6083,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="X60" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="Y60" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>53536</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>156032</v>
+      </c>
+      <c r="C61" t="s">
+        <v>529</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="K61" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="L61" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="O61" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -5754,13 +6154,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="X61" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="Y61" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
